--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,18 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -79,79 +76,91 @@
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -509,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C5">
         <v>19</v>
@@ -696,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0.9152542372881356</v>
@@ -728,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4313725490196079</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3915343915343915</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C7">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8490566037735849</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,49 +837,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3389830508474576</v>
+        <v>0.3430232558139535</v>
       </c>
       <c r="C8">
+        <v>177</v>
+      </c>
+      <c r="D8">
+        <v>177</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>339</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="L8">
+        <v>86</v>
+      </c>
+      <c r="M8">
+        <v>86</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>20</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>39</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8">
-        <v>0.835509138381201</v>
-      </c>
-      <c r="L8">
-        <v>320</v>
-      </c>
-      <c r="M8">
-        <v>320</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -878,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.312015503875969</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -896,69 +905,45 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>355</v>
+        <v>123</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8093994778067886</v>
+      </c>
+      <c r="L9">
+        <v>310</v>
+      </c>
+      <c r="M9">
+        <v>310</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K9">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L9">
-        <v>30</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1543624161073825</v>
-      </c>
-      <c r="C10">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>126</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.78125</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,21 +955,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8046875</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,21 +981,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1022,21 +1007,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1048,21 +1033,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1074,21 +1059,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1100,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1126,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1152,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7272727272727273</v>
+        <v>0.74375</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1178,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6875</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1204,15 +1189,15 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.68</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
         <v>34</v>
@@ -1230,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1256,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1282,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6205882352941177</v>
+        <v>0.675</v>
       </c>
       <c r="L23">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1308,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>129</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1334,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5732217573221757</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1360,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.55</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1386,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5457627118644067</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L27">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="M27">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1412,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5425531914893617</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1438,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5384615384615384</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L29">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="M29">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1464,21 +1449,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.5627118644067797</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1490,33 +1475,137 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31">
+        <v>50</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K31">
-        <v>0.4157303370786517</v>
-      </c>
-      <c r="L31">
+      <c r="K32">
+        <v>0.5285714285714286</v>
+      </c>
+      <c r="L32">
         <v>37</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>37</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>52</v>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L33">
+        <v>41</v>
+      </c>
+      <c r="M33">
+        <v>41</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L35">
+        <v>23</v>
+      </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
